--- a/data/markov/Power_Hindex.xlsx
+++ b/data/markov/Power_Hindex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\markov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF37D451-933F-4FA9-897D-380725F009F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EDABA7-8905-4ED5-B460-3F1A39F9C802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5835" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="958" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="958" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Hindex" sheetId="41" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="127">
   <si>
     <t>h0001</t>
   </si>
@@ -247,9 +247,6 @@
     <t>k0024</t>
   </si>
   <si>
-    <t>h0168</t>
-  </si>
-  <si>
     <t>h0025</t>
   </si>
   <si>
@@ -464,291 +461,6 @@
   </si>
   <si>
     <t>h0096</t>
-  </si>
-  <si>
-    <t>h0097</t>
-  </si>
-  <si>
-    <t>h0098</t>
-  </si>
-  <si>
-    <t>h0099</t>
-  </si>
-  <si>
-    <t>h0100</t>
-  </si>
-  <si>
-    <t>h0101</t>
-  </si>
-  <si>
-    <t>h0102</t>
-  </si>
-  <si>
-    <t>h0103</t>
-  </si>
-  <si>
-    <t>h0104</t>
-  </si>
-  <si>
-    <t>h0105</t>
-  </si>
-  <si>
-    <t>h0106</t>
-  </si>
-  <si>
-    <t>h0107</t>
-  </si>
-  <si>
-    <t>h0108</t>
-  </si>
-  <si>
-    <t>h0109</t>
-  </si>
-  <si>
-    <t>h0110</t>
-  </si>
-  <si>
-    <t>h0111</t>
-  </si>
-  <si>
-    <t>h0112</t>
-  </si>
-  <si>
-    <t>h0113</t>
-  </si>
-  <si>
-    <t>h0114</t>
-  </si>
-  <si>
-    <t>h0115</t>
-  </si>
-  <si>
-    <t>h0116</t>
-  </si>
-  <si>
-    <t>h0117</t>
-  </si>
-  <si>
-    <t>h0118</t>
-  </si>
-  <si>
-    <t>h0119</t>
-  </si>
-  <si>
-    <t>h0120</t>
-  </si>
-  <si>
-    <t>h0121</t>
-  </si>
-  <si>
-    <t>h0122</t>
-  </si>
-  <si>
-    <t>h0123</t>
-  </si>
-  <si>
-    <t>h0124</t>
-  </si>
-  <si>
-    <t>h0125</t>
-  </si>
-  <si>
-    <t>h0126</t>
-  </si>
-  <si>
-    <t>h0127</t>
-  </si>
-  <si>
-    <t>h0128</t>
-  </si>
-  <si>
-    <t>h0129</t>
-  </si>
-  <si>
-    <t>h0130</t>
-  </si>
-  <si>
-    <t>h0131</t>
-  </si>
-  <si>
-    <t>h0132</t>
-  </si>
-  <si>
-    <t>h0133</t>
-  </si>
-  <si>
-    <t>h0134</t>
-  </si>
-  <si>
-    <t>h0135</t>
-  </si>
-  <si>
-    <t>h0136</t>
-  </si>
-  <si>
-    <t>h0137</t>
-  </si>
-  <si>
-    <t>h0138</t>
-  </si>
-  <si>
-    <t>h0139</t>
-  </si>
-  <si>
-    <t>h0140</t>
-  </si>
-  <si>
-    <t>h0141</t>
-  </si>
-  <si>
-    <t>h0142</t>
-  </si>
-  <si>
-    <t>h0143</t>
-  </si>
-  <si>
-    <t>h0144</t>
-  </si>
-  <si>
-    <t>h0145</t>
-  </si>
-  <si>
-    <t>h0146</t>
-  </si>
-  <si>
-    <t>h0147</t>
-  </si>
-  <si>
-    <t>h0148</t>
-  </si>
-  <si>
-    <t>h0149</t>
-  </si>
-  <si>
-    <t>h0150</t>
-  </si>
-  <si>
-    <t>h0151</t>
-  </si>
-  <si>
-    <t>h0152</t>
-  </si>
-  <si>
-    <t>h0153</t>
-  </si>
-  <si>
-    <t>h0154</t>
-  </si>
-  <si>
-    <t>h0155</t>
-  </si>
-  <si>
-    <t>h0156</t>
-  </si>
-  <si>
-    <t>h0157</t>
-  </si>
-  <si>
-    <t>h0158</t>
-  </si>
-  <si>
-    <t>h0159</t>
-  </si>
-  <si>
-    <t>h0160</t>
-  </si>
-  <si>
-    <t>h0161</t>
-  </si>
-  <si>
-    <t>h0162</t>
-  </si>
-  <si>
-    <t>h0163</t>
-  </si>
-  <si>
-    <t>h0164</t>
-  </si>
-  <si>
-    <t>h0165</t>
-  </si>
-  <si>
-    <t>h0166</t>
-  </si>
-  <si>
-    <t>h0167</t>
-  </si>
-  <si>
-    <t>h0169</t>
-  </si>
-  <si>
-    <t>h0170</t>
-  </si>
-  <si>
-    <t>h0171</t>
-  </si>
-  <si>
-    <t>h0172</t>
-  </si>
-  <si>
-    <t>h0173</t>
-  </si>
-  <si>
-    <t>h0174</t>
-  </si>
-  <si>
-    <t>h0175</t>
-  </si>
-  <si>
-    <t>h0176</t>
-  </si>
-  <si>
-    <t>h0177</t>
-  </si>
-  <si>
-    <t>h0178</t>
-  </si>
-  <si>
-    <t>h0179</t>
-  </si>
-  <si>
-    <t>h0180</t>
-  </si>
-  <si>
-    <t>h0181</t>
-  </si>
-  <si>
-    <t>h0182</t>
-  </si>
-  <si>
-    <t>h0183</t>
-  </si>
-  <si>
-    <t>h0184</t>
-  </si>
-  <si>
-    <t>h0185</t>
-  </si>
-  <si>
-    <t>h0186</t>
-  </si>
-  <si>
-    <t>h0187</t>
-  </si>
-  <si>
-    <t>h0188</t>
-  </si>
-  <si>
-    <t>h0189</t>
-  </si>
-  <si>
-    <t>h0190</t>
-  </si>
-  <si>
-    <t>h0191</t>
-  </si>
-  <si>
-    <t>h0192</t>
   </si>
   <si>
     <t>rp02</t>
@@ -1300,10 +1012,10 @@
   <sheetPr codeName="Hoja23">
     <tabColor rgb="FF008080"/>
   </sheetPr>
-  <dimension ref="B1:G198"/>
+  <dimension ref="B1:G103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A153" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F180" sqref="F180"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1318,19 +1030,19 @@
   <sheetData>
     <row r="1" spans="2:7" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
-        <v>221</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
-        <v>220</v>
+        <v>124</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>222</v>
+        <v>126</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1612,10 +1324,10 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>25</v>
@@ -1623,10 +1335,10 @@
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>26</v>
@@ -1634,10 +1346,10 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>27</v>
@@ -1645,10 +1357,10 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>28</v>
@@ -1656,10 +1368,10 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>29</v>
@@ -1667,10 +1379,10 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>30</v>
@@ -1678,10 +1390,10 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>31</v>
@@ -1689,10 +1401,10 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>32</v>
@@ -1700,10 +1412,10 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>33</v>
@@ -1711,10 +1423,10 @@
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>34</v>
@@ -1722,10 +1434,10 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>35</v>
@@ -1733,10 +1445,10 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>36</v>
@@ -1744,10 +1456,10 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>37</v>
@@ -1755,10 +1467,10 @@
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>38</v>
@@ -1766,10 +1478,10 @@
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>39</v>
@@ -1777,10 +1489,10 @@
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>40</v>
@@ -1788,10 +1500,10 @@
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>41</v>
@@ -1799,10 +1511,10 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>42</v>
@@ -1810,10 +1522,10 @@
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>43</v>
@@ -1821,10 +1533,10 @@
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>44</v>
@@ -1832,10 +1544,10 @@
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>45</v>
@@ -1843,10 +1555,10 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>46</v>
@@ -1854,10 +1566,10 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>47</v>
@@ -1865,10 +1577,10 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>48</v>
@@ -1876,10 +1588,10 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>25</v>
@@ -1887,10 +1599,10 @@
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>26</v>
@@ -1898,10 +1610,10 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>27</v>
@@ -1909,10 +1621,10 @@
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>28</v>
@@ -1920,10 +1632,10 @@
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>29</v>
@@ -1931,10 +1643,10 @@
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>30</v>
@@ -1942,10 +1654,10 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>31</v>
@@ -1953,10 +1665,10 @@
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>32</v>
@@ -1964,10 +1676,10 @@
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>33</v>
@@ -1975,10 +1687,10 @@
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>34</v>
@@ -1986,10 +1698,10 @@
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>35</v>
@@ -1997,10 +1709,10 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>36</v>
@@ -2008,10 +1720,10 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>37</v>
@@ -2019,10 +1731,10 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>38</v>
@@ -2030,10 +1742,10 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>39</v>
@@ -2041,10 +1753,10 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>40</v>
@@ -2052,10 +1764,10 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>41</v>
@@ -2063,10 +1775,10 @@
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>42</v>
@@ -2074,10 +1786,10 @@
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>43</v>
@@ -2085,10 +1797,10 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>44</v>
@@ -2096,10 +1808,10 @@
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>45</v>
@@ -2107,10 +1819,10 @@
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>46</v>
@@ -2118,10 +1830,10 @@
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>47</v>
@@ -2129,10 +1841,10 @@
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>48</v>
@@ -2140,10 +1852,10 @@
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>25</v>
@@ -2151,10 +1863,10 @@
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>26</v>
@@ -2162,10 +1874,10 @@
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>27</v>
@@ -2173,10 +1885,10 @@
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>28</v>
@@ -2184,10 +1896,10 @@
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>29</v>
@@ -2195,10 +1907,10 @@
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>30</v>
@@ -2206,10 +1918,10 @@
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>31</v>
@@ -2217,10 +1929,10 @@
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>32</v>
@@ -2228,10 +1940,10 @@
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>33</v>
@@ -2239,10 +1951,10 @@
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>34</v>
@@ -2250,10 +1962,10 @@
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>35</v>
@@ -2261,10 +1973,10 @@
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>36</v>
@@ -2272,10 +1984,10 @@
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>37</v>
@@ -2283,10 +1995,10 @@
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>38</v>
@@ -2294,10 +2006,10 @@
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>39</v>
@@ -2305,10 +2017,10 @@
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B94" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>40</v>
@@ -2316,10 +2028,10 @@
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>41</v>
@@ -2327,1137 +2039,83 @@
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B96" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B97" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B100" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B101" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B102" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B103" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E103"/>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B104" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B105" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B106" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B107" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B108" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B109" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B110" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B111" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B112" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B113" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B114" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B115" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B116" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B117" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B118" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B119" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B120" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B121" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B122" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B123" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B124" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B125" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B126" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B127" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B128" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B129" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B130" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B131" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B132" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B133" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B134" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B135" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B136" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B137" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B138" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B139" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B140" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B141" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B142" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B143" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B144" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B145" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B146" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B147" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B148" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B149" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B150" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B151" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B152" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B153" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B154" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B155" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B156" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B157" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B158" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B159" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B160" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B161" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B162" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B163" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B164" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B165" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B166" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B167" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B168" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B169" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B170" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B171" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B172" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B173" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B174" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B175" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B176" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B177" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B178" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B179" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B180" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B181" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B182" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B183" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B184" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B185" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B186" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B187" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B188" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B189" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B190" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B191" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B192" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B193" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B194" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B195" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B196" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B197" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B198" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>48</v>
-      </c>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B103"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>

--- a/data/markov/Power_Hindex.xlsx
+++ b/data/markov/Power_Hindex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\markov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EDABA7-8905-4ED5-B460-3F1A39F9C802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BED3DD5-AC0A-4925-A84D-6733684F8D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="958" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="177">
   <si>
     <t>h0001</t>
   </si>
@@ -479,6 +479,156 @@
   </si>
   <si>
     <t>hindex(p,rp,k)</t>
+  </si>
+  <si>
+    <t>rp05</t>
+  </si>
+  <si>
+    <t>h0097</t>
+  </si>
+  <si>
+    <t>h0098</t>
+  </si>
+  <si>
+    <t>h0099</t>
+  </si>
+  <si>
+    <t>h0100</t>
+  </si>
+  <si>
+    <t>h0101</t>
+  </si>
+  <si>
+    <t>h0102</t>
+  </si>
+  <si>
+    <t>h0103</t>
+  </si>
+  <si>
+    <t>h0104</t>
+  </si>
+  <si>
+    <t>h0105</t>
+  </si>
+  <si>
+    <t>h0106</t>
+  </si>
+  <si>
+    <t>h0107</t>
+  </si>
+  <si>
+    <t>h0108</t>
+  </si>
+  <si>
+    <t>h0109</t>
+  </si>
+  <si>
+    <t>h0110</t>
+  </si>
+  <si>
+    <t>h0111</t>
+  </si>
+  <si>
+    <t>h0112</t>
+  </si>
+  <si>
+    <t>h0113</t>
+  </si>
+  <si>
+    <t>h0114</t>
+  </si>
+  <si>
+    <t>h0115</t>
+  </si>
+  <si>
+    <t>h0116</t>
+  </si>
+  <si>
+    <t>h0117</t>
+  </si>
+  <si>
+    <t>h0118</t>
+  </si>
+  <si>
+    <t>h0119</t>
+  </si>
+  <si>
+    <t>h0120</t>
+  </si>
+  <si>
+    <t>rp06</t>
+  </si>
+  <si>
+    <t>h0121</t>
+  </si>
+  <si>
+    <t>h0122</t>
+  </si>
+  <si>
+    <t>h0123</t>
+  </si>
+  <si>
+    <t>h0124</t>
+  </si>
+  <si>
+    <t>h0125</t>
+  </si>
+  <si>
+    <t>h0126</t>
+  </si>
+  <si>
+    <t>h0127</t>
+  </si>
+  <si>
+    <t>h0128</t>
+  </si>
+  <si>
+    <t>h0129</t>
+  </si>
+  <si>
+    <t>h0130</t>
+  </si>
+  <si>
+    <t>h0131</t>
+  </si>
+  <si>
+    <t>h0132</t>
+  </si>
+  <si>
+    <t>h0133</t>
+  </si>
+  <si>
+    <t>h0134</t>
+  </si>
+  <si>
+    <t>h0135</t>
+  </si>
+  <si>
+    <t>h0136</t>
+  </si>
+  <si>
+    <t>h0137</t>
+  </si>
+  <si>
+    <t>h0138</t>
+  </si>
+  <si>
+    <t>h0139</t>
+  </si>
+  <si>
+    <t>h0140</t>
+  </si>
+  <si>
+    <t>h0141</t>
+  </si>
+  <si>
+    <t>h0142</t>
+  </si>
+  <si>
+    <t>h0143</t>
+  </si>
+  <si>
+    <t>h0144</t>
   </si>
 </sst>
 </file>
@@ -660,7 +810,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -683,6 +833,7 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Data" xfId="1" xr:uid="{226E918E-BB32-45FB-8600-16B83FFE7285}"/>
@@ -1012,10 +1163,10 @@
   <sheetPr codeName="Hoja23">
     <tabColor rgb="FF008080"/>
   </sheetPr>
-  <dimension ref="B1:G103"/>
+  <dimension ref="B1:G150"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2115,7 +2266,532 @@
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B103"/>
+      <c r="B103" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B104" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B105" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B106" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B107" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B108" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B109" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B110" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B111" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B112" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B113" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B114" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B115" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B116" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B117" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B118" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B119" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B120" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B121" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B122" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B123" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B124" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B125" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B126" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B127" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B128" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B129" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B130" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B131" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B132" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B133" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B134" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B135" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B136" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B137" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B138" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B139" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B140" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B141" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B142" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B143" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B144" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B145" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B146" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B147" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B148" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B149" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B150" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -2127,9 +2803,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2279,26 +2958,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2322,9 +2990,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/markov/Power_Hindex.xlsx
+++ b/data/markov/Power_Hindex.xlsx
@@ -28,7 +28,7 @@
     <font>
       <name val="Aptos"/>
       <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="18"/>
     </font>
     <font>
@@ -43,7 +43,7 @@
     </font>
     <font>
       <name val="Aptos"/>
-      <color rgb="000000FF"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
     </font>
     <font>
@@ -60,38 +60,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00008080"/>
-        <bgColor rgb="00008080"/>
+        <fgColor rgb="FF008080"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DAEEF3"/>
-        <bgColor rgb="00DAEEF3"/>
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor rgb="FFDAEEF3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9D9D9"/>
-        <bgColor rgb="00D9D9D9"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F2F2F2"/>
-        <bgColor rgb="00F2F2F2"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCFFCC"/>
-        <bgColor rgb="00CCFFCC"/>
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B8CCE4"/>
-        <bgColor rgb="00B8CCE4"/>
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor rgb="FFB8CCE4"/>
       </patternFill>
     </fill>
   </fills>
@@ -547,16 +547,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5.5709375" customWidth="1" min="1" max="1"/>
+    <col width="5.5703125" customWidth="1" min="1" max="1"/>
     <col width="19.7109375" customWidth="1" min="2" max="2"/>
     <col width="15.7109375" customWidth="1" min="3" max="3"/>
     <col width="15.7109375" customWidth="1" min="4" max="4"/>
-    <col width="15.7109375" customWidth="1" min="5" max="5"/>
-    <col width="24.5709375" customWidth="1" min="6" max="6"/>
-    <col width="24.5709375" customWidth="1" min="7" max="7"/>
+    <col width="17.7109375" customWidth="1" min="5" max="5"/>
+    <col width="24.5703125" customWidth="1" min="6" max="6"/>
+    <col width="24.5703125" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="24" customHeight="1">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="2" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>v0.1.2</t>
+          <t>v0.1.3</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="E5" s="7" t="inlineStr">
         <is>
-          <t>Representative hour within rp</t>
+          <t>Representative time step within rp</t>
         </is>
       </c>
       <c r="F5" s="7" t="inlineStr">
